--- a/Documentation/TimeSheets/week3/Issac_timesheet_wk3.xlsx
+++ b/Documentation/TimeSheets/week3/Issac_timesheet_wk3.xlsx
@@ -64,9 +64,6 @@
     <t>Period Start Date</t>
   </si>
   <si>
-    <t>Name: Pavitter Sidhu</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Working with Group member to identify connection issue</t>
+  </si>
+  <si>
+    <t>Name: Kin Leong Lee</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
   </sheetPr>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -698,7 +698,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -709,10 +709,10 @@
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -757,7 +757,7 @@
     </row>
     <row r="6" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="8" spans="2:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>42954</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="9" spans="2:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
         <v>42955</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5">
         <v>0.5</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="10" spans="2:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>42957</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="11" spans="2:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>42958</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="12" spans="2:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <v>42958</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -874,16 +874,16 @@
     </row>
     <row r="13" spans="2:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
         <v>42959</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
